--- a/cta策略/result/螺纹/DMA_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/DMA_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.002475295379741005</v>
+        <v>0.08041781128936432</v>
       </c>
       <c r="D2">
-        <v>-0.1962655733008627</v>
+        <v>0.1753084581833272</v>
       </c>
       <c r="E2">
-        <v>-0.004149842644611418</v>
+        <v>0.1452791715664926</v>
       </c>
       <c r="F2">
-        <v>0.4375</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
   </sheetData>
